--- a/Задания на практику ПП-01/Сессия 1/import/visitors.xlsx
+++ b/Задания на практику ПП-01/Сессия 1/import/visitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colorful\Documents\GitHub\Проект\Задания на практику ПП-01\Сессия 1\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AFF60F-AFA2-4627-8B56-81D1920A1ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B06ECCA-0854-4190-8737-ED7A2E0DDD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -752,10 +752,19 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
